--- a/Documents/Dime/DIME_ENEM_REDACAO.xlsx
+++ b/Documents/Dime/DIME_ENEM_REDACAO.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNISG\ProjetoEnem\Enem\Documents\Dime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A879F309-07F0-4311-A45D-ACE46AADFD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B45298-5004-44F1-A7C2-79FFF01626E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{7752F647-A102-4845-8E03-8C85939B78C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="TP_STATUS_REDACAO" sheetId="1" r:id="rId1"/>
+    <sheet name="DIME_STATUS_REDACAO" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
